--- a/MaHH.xlsx
+++ b/MaHH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Works 2\IT\GITHUB\UpSSE_hddt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Works 2\IT\GITHUB\UpSSE_render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CC44CC-AAA2-4DC0-9370-2FB190D617AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3863BF-8472-4B0E-81D7-D325B9CD2C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E1154C90-8187-4C9D-8DDB-7618463980C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="323">
   <si>
     <t>Đvt</t>
   </si>
@@ -972,6 +972,36 @@
   </si>
   <si>
     <t>Mã hàng hóa</t>
+  </si>
+  <si>
+    <t>PV Engine RMI 15W-40/ 18 lít</t>
+  </si>
+  <si>
+    <t>PV Engine RMI 20W-50/ 18 lít</t>
+  </si>
+  <si>
+    <t>Vtech Ultra/ 4 lít</t>
+  </si>
+  <si>
+    <t>Vtech Super SAE 20W-50/ 4L</t>
+  </si>
+  <si>
+    <t>PV Engine HD 50/ 18 lít</t>
+  </si>
+  <si>
+    <t>Vspeed super 20W50 4T( lon 0,8 lít)</t>
+  </si>
+  <si>
+    <t>Dầu phanh DOT 3</t>
+  </si>
+  <si>
+    <t>VDMax Super 20W50/ 18L</t>
+  </si>
+  <si>
+    <t>VDMAax Plus 20W50/ 18L</t>
+  </si>
+  <si>
+    <t>PV Hydraulie VG 68M/ 18L</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1462,6 +1492,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1512,7 +1551,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1529,6 +1568,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1576,7 +1618,78 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1954,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9639D367-352F-44BE-8505-63CC30B1FB0F}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3440,7 +3553,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>278</v>
       </c>
@@ -3451,7 +3564,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>280</v>
       </c>
@@ -3462,7 +3575,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>282</v>
       </c>
@@ -3473,7 +3586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>284</v>
       </c>
@@ -3484,7 +3597,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>286</v>
       </c>
@@ -3495,7 +3608,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>288</v>
       </c>
@@ -3506,7 +3619,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>290</v>
       </c>
@@ -3517,7 +3630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>292</v>
       </c>
@@ -3528,7 +3641,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>294</v>
       </c>
@@ -3539,7 +3652,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>296</v>
       </c>
@@ -3550,7 +3663,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>298</v>
       </c>
@@ -3561,7 +3674,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>300</v>
       </c>
@@ -3572,7 +3685,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>302</v>
       </c>
@@ -3583,51 +3696,154 @@
         <v>301</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A158" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A159" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A161" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148" s="2" t="s">
+      <c r="B161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A149" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A150" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C148 C150:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MaHH.xlsx
+++ b/MaHH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Works 2\IT\GITHUB\UpSSE_render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3863BF-8472-4B0E-81D7-D325B9CD2C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D35EBF0-6A94-4D01-AB11-08DC6F9CFB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E1154C90-8187-4C9D-8DDB-7618463980C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1154C90-8187-4C9D-8DDB-7618463980C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -944,18 +944,6 @@
     <t>Dầu nhờn động cơ Diesel/Delo Gold Ultra  SAE 15W40 208LMML3</t>
   </si>
   <si>
-    <t>Xăng E5 RON 92-II</t>
-  </si>
-  <si>
-    <t>Xăng RON 95-III</t>
-  </si>
-  <si>
-    <t>Dầu DO 0,05S-II</t>
-  </si>
-  <si>
-    <t>Dầu DO 0,001S-V</t>
-  </si>
-  <si>
     <t>HH034</t>
   </si>
   <si>
@@ -1002,6 +990,18 @@
   </si>
   <si>
     <t>PV Hydraulie VG 68M/ 18L</t>
+  </si>
+  <si>
+    <t>Dầu Điêzen 0,001S Mức 5</t>
+  </si>
+  <si>
+    <t>Dầu Điêzen 0,05S Mức 2</t>
+  </si>
+  <si>
+    <t>Xăng RON95 Mức 3</t>
+  </si>
+  <si>
+    <t>Xăng E5 RON92 Mức 2</t>
   </si>
 </sst>
 </file>
@@ -1618,37 +1618,7 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2069,28 +2039,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9639D367-352F-44BE-8505-63CC30B1FB0F}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2112,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2134,7 +2104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2145,7 +2115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2178,7 +2148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2200,7 +2170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2211,7 +2181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -2222,7 +2192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2233,7 +2203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -2244,7 +2214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2255,7 +2225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -2266,7 +2236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2277,7 +2247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -2288,7 +2258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -2299,7 +2269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2310,7 +2280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -2321,7 +2291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2332,7 +2302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2343,7 +2313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -2354,7 +2324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2365,7 +2335,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2376,7 +2346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2387,7 +2357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -2398,7 +2368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -2409,7 +2379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2420,7 +2390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2431,7 +2401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2442,7 +2412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2453,7 +2423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -2464,7 +2434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -2475,7 +2445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -2486,7 +2456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2497,7 +2467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2508,7 +2478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2519,7 +2489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -2530,7 +2500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
@@ -2541,7 +2511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -2552,7 +2522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
@@ -2563,7 +2533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
@@ -2574,7 +2544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
@@ -2585,7 +2555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
@@ -2596,7 +2566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -2607,7 +2577,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -2618,7 +2588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -2629,7 +2599,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -2640,7 +2610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -2651,7 +2621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -2662,7 +2632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -2673,7 +2643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -2684,7 +2654,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -2695,7 +2665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2706,7 +2676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -2717,7 +2687,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -2728,7 +2698,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
@@ -2739,7 +2709,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>130</v>
       </c>
@@ -2750,7 +2720,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>132</v>
       </c>
@@ -2761,7 +2731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>134</v>
       </c>
@@ -2772,7 +2742,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
@@ -2783,7 +2753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>138</v>
       </c>
@@ -2794,7 +2764,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
@@ -2805,7 +2775,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -2816,7 +2786,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2827,7 +2797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>146</v>
       </c>
@@ -2838,7 +2808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>148</v>
       </c>
@@ -2849,7 +2819,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -2860,7 +2830,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>152</v>
       </c>
@@ -2871,7 +2841,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -2882,7 +2852,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>156</v>
       </c>
@@ -2893,7 +2863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
@@ -2904,7 +2874,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>160</v>
       </c>
@@ -2915,7 +2885,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
@@ -2926,7 +2896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
@@ -2937,7 +2907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>167</v>
       </c>
@@ -2948,7 +2918,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>169</v>
       </c>
@@ -2959,7 +2929,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
@@ -2970,7 +2940,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>173</v>
       </c>
@@ -2981,7 +2951,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>175</v>
       </c>
@@ -2992,7 +2962,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>177</v>
       </c>
@@ -3003,7 +2973,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>179</v>
       </c>
@@ -3014,7 +2984,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>181</v>
       </c>
@@ -3025,7 +2995,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>183</v>
       </c>
@@ -3036,7 +3006,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>185</v>
       </c>
@@ -3047,7 +3017,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>187</v>
       </c>
@@ -3058,7 +3028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>189</v>
       </c>
@@ -3069,7 +3039,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>191</v>
       </c>
@@ -3080,7 +3050,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>193</v>
       </c>
@@ -3091,7 +3061,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>195</v>
       </c>
@@ -3102,7 +3072,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>197</v>
       </c>
@@ -3113,7 +3083,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
@@ -3124,7 +3094,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>201</v>
       </c>
@@ -3135,7 +3105,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>203</v>
       </c>
@@ -3146,7 +3116,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
@@ -3157,7 +3127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>207</v>
       </c>
@@ -3168,7 +3138,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>209</v>
       </c>
@@ -3179,7 +3149,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>211</v>
       </c>
@@ -3190,7 +3160,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>213</v>
       </c>
@@ -3201,7 +3171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>215</v>
       </c>
@@ -3212,7 +3182,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>217</v>
       </c>
@@ -3223,7 +3193,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>219</v>
       </c>
@@ -3234,7 +3204,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>221</v>
       </c>
@@ -3245,7 +3215,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>223</v>
       </c>
@@ -3256,7 +3226,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>225</v>
       </c>
@@ -3267,7 +3237,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>227</v>
       </c>
@@ -3278,7 +3248,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -3289,7 +3259,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>230</v>
       </c>
@@ -3300,7 +3270,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>232</v>
       </c>
@@ -3311,7 +3281,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>234</v>
       </c>
@@ -3322,7 +3292,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>236</v>
       </c>
@@ -3333,7 +3303,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>238</v>
       </c>
@@ -3344,7 +3314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>240</v>
       </c>
@@ -3355,7 +3325,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>242</v>
       </c>
@@ -3366,7 +3336,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>244</v>
       </c>
@@ -3377,7 +3347,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>246</v>
       </c>
@@ -3388,7 +3358,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>248</v>
       </c>
@@ -3399,7 +3369,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>250</v>
       </c>
@@ -3410,7 +3380,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>252</v>
       </c>
@@ -3421,7 +3391,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>254</v>
       </c>
@@ -3432,7 +3402,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>256</v>
       </c>
@@ -3443,7 +3413,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>258</v>
       </c>
@@ -3454,7 +3424,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>260</v>
       </c>
@@ -3465,7 +3435,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>262</v>
       </c>
@@ -3476,7 +3446,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>264</v>
       </c>
@@ -3487,7 +3457,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>266</v>
       </c>
@@ -3498,7 +3468,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>268</v>
       </c>
@@ -3509,7 +3479,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>270</v>
       </c>
@@ -3520,7 +3490,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>272</v>
       </c>
@@ -3531,7 +3501,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>274</v>
       </c>
@@ -3542,7 +3512,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>276</v>
       </c>
@@ -3553,7 +3523,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>278</v>
       </c>
@@ -3564,7 +3534,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>280</v>
       </c>
@@ -3575,7 +3545,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>282</v>
       </c>
@@ -3586,7 +3556,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>284</v>
       </c>
@@ -3597,7 +3567,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>286</v>
       </c>
@@ -3608,7 +3578,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>288</v>
       </c>
@@ -3619,7 +3589,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>290</v>
       </c>
@@ -3630,7 +3600,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>292</v>
       </c>
@@ -3641,7 +3611,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>294</v>
       </c>
@@ -3652,7 +3622,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>296</v>
       </c>
@@ -3663,7 +3633,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>298</v>
       </c>
@@ -3674,7 +3644,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>300</v>
       </c>
@@ -3685,7 +3655,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>302</v>
       </c>
@@ -3696,9 +3666,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -3706,143 +3676,143 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C148 C150:C1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D148">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MaHH.xlsx
+++ b/MaHH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Works 2\IT\GITHUB\UpSSE_render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D35EBF0-6A94-4D01-AB11-08DC6F9CFB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7B229-A3B6-4A2B-8842-752AC25B10B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1154C90-8187-4C9D-8DDB-7618463980C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E1154C90-8187-4C9D-8DDB-7618463980C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="326">
   <si>
     <t>Đvt</t>
   </si>
@@ -1002,6 +1002,15 @@
   </si>
   <si>
     <t>Xăng E5 RON92 Mức 2</t>
+  </si>
+  <si>
+    <t>Loại hàng hóa</t>
+  </si>
+  <si>
+    <t>DMN</t>
+  </si>
+  <si>
+    <t>Xăng dầu</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1505,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1551,7 +1562,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1569,7 +1580,10 @@
       <alignment vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1632,47 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2039,17 +2093,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9639D367-352F-44BE-8505-63CC30B1FB0F}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -2059,8 +2113,11 @@
       <c r="C1" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2070,8 +2127,11 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D2" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2081,8 +2141,11 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D3" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2092,8 +2155,11 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D4" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2103,8 +2169,11 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D5" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2114,8 +2183,11 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D6" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2125,8 +2197,11 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D7" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2136,8 +2211,11 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D8" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2147,8 +2225,11 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D9" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2158,8 +2239,11 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D10" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2169,8 +2253,11 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2180,8 +2267,11 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -2191,8 +2281,11 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D13" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2202,8 +2295,11 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D14" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -2213,8 +2309,11 @@
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2224,8 +2323,11 @@
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D16" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -2235,8 +2337,11 @@
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2246,8 +2351,11 @@
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D18" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -2257,8 +2365,11 @@
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D19" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -2268,8 +2379,11 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D20" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2279,8 +2393,11 @@
       <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D21" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -2290,8 +2407,11 @@
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D22" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2301,8 +2421,11 @@
       <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D23" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2312,8 +2435,11 @@
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D24" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D25" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2334,8 +2463,11 @@
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D26" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2345,8 +2477,11 @@
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D27" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2356,8 +2491,11 @@
       <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D28" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -2367,8 +2505,11 @@
       <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D29" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -2378,8 +2519,11 @@
       <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D30" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2389,8 +2533,11 @@
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D31" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2400,8 +2547,11 @@
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D32" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2411,8 +2561,11 @@
       <c r="C33" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D33" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2422,8 +2575,11 @@
       <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D34" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -2433,8 +2589,11 @@
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D35" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -2444,8 +2603,11 @@
       <c r="C36" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D36" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -2455,8 +2617,11 @@
       <c r="C37" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D37" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2466,8 +2631,11 @@
       <c r="C38" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D38" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2477,8 +2645,11 @@
       <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D39" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2488,8 +2659,11 @@
       <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D40" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -2499,8 +2673,11 @@
       <c r="C41" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D41" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
@@ -2510,8 +2687,11 @@
       <c r="C42" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D42" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -2521,8 +2701,11 @@
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D43" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
@@ -2532,8 +2715,11 @@
       <c r="C44" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D44" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
@@ -2543,8 +2729,11 @@
       <c r="C45" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D45" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
@@ -2554,8 +2743,11 @@
       <c r="C46" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D46" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
@@ -2565,8 +2757,11 @@
       <c r="C47" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D47" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -2576,8 +2771,11 @@
       <c r="C48" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D48" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -2587,8 +2785,11 @@
       <c r="C49" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D49" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -2598,8 +2799,11 @@
       <c r="C50" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D50" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -2609,8 +2813,11 @@
       <c r="C51" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D51" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -2620,8 +2827,11 @@
       <c r="C52" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D52" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -2631,8 +2841,11 @@
       <c r="C53" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D53" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -2642,8 +2855,11 @@
       <c r="C54" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D54" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -2653,8 +2869,11 @@
       <c r="C55" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D55" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -2664,8 +2883,11 @@
       <c r="C56" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D56" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2675,8 +2897,11 @@
       <c r="C57" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D57" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -2686,8 +2911,11 @@
       <c r="C58" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D58" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -2697,8 +2925,11 @@
       <c r="C59" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D59" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
@@ -2708,8 +2939,11 @@
       <c r="C60" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D60" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>130</v>
       </c>
@@ -2719,8 +2953,11 @@
       <c r="C61" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D61" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>132</v>
       </c>
@@ -2730,8 +2967,11 @@
       <c r="C62" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D62" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>134</v>
       </c>
@@ -2741,8 +2981,11 @@
       <c r="C63" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D63" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="C64" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D64" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>138</v>
       </c>
@@ -2763,8 +3009,11 @@
       <c r="C65" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D65" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
@@ -2774,8 +3023,11 @@
       <c r="C66" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D66" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -2785,8 +3037,11 @@
       <c r="C67" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D67" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2796,8 +3051,11 @@
       <c r="C68" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D68" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>146</v>
       </c>
@@ -2807,8 +3065,11 @@
       <c r="C69" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D69" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>148</v>
       </c>
@@ -2818,8 +3079,11 @@
       <c r="C70" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D70" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -2829,8 +3093,11 @@
       <c r="C71" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D71" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>152</v>
       </c>
@@ -2840,8 +3107,11 @@
       <c r="C72" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D72" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -2851,8 +3121,11 @@
       <c r="C73" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D73" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>156</v>
       </c>
@@ -2862,8 +3135,11 @@
       <c r="C74" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D74" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
@@ -2873,8 +3149,11 @@
       <c r="C75" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D75" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>160</v>
       </c>
@@ -2884,8 +3163,11 @@
       <c r="C76" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D76" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
@@ -2895,8 +3177,11 @@
       <c r="C77" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D77" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
@@ -2906,8 +3191,11 @@
       <c r="C78" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D78" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>167</v>
       </c>
@@ -2917,8 +3205,11 @@
       <c r="C79" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D79" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>169</v>
       </c>
@@ -2928,8 +3219,11 @@
       <c r="C80" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D80" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
@@ -2939,8 +3233,11 @@
       <c r="C81" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D81" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>173</v>
       </c>
@@ -2950,8 +3247,11 @@
       <c r="C82" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D82" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>175</v>
       </c>
@@ -2961,8 +3261,11 @@
       <c r="C83" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D83" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>177</v>
       </c>
@@ -2972,8 +3275,11 @@
       <c r="C84" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D84" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>179</v>
       </c>
@@ -2983,8 +3289,11 @@
       <c r="C85" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D85" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>181</v>
       </c>
@@ -2994,8 +3303,11 @@
       <c r="C86" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D86" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>183</v>
       </c>
@@ -3005,8 +3317,11 @@
       <c r="C87" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D87" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>185</v>
       </c>
@@ -3016,8 +3331,11 @@
       <c r="C88" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D88" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>187</v>
       </c>
@@ -3027,8 +3345,11 @@
       <c r="C89" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D89" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>189</v>
       </c>
@@ -3038,8 +3359,11 @@
       <c r="C90" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D90" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>191</v>
       </c>
@@ -3049,8 +3373,11 @@
       <c r="C91" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D91" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>193</v>
       </c>
@@ -3060,8 +3387,11 @@
       <c r="C92" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D92" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>195</v>
       </c>
@@ -3071,8 +3401,11 @@
       <c r="C93" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D93" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>197</v>
       </c>
@@ -3082,8 +3415,11 @@
       <c r="C94" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D94" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
@@ -3093,8 +3429,11 @@
       <c r="C95" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D95" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>201</v>
       </c>
@@ -3104,8 +3443,11 @@
       <c r="C96" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D96" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>203</v>
       </c>
@@ -3115,8 +3457,11 @@
       <c r="C97" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D97" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
@@ -3126,8 +3471,11 @@
       <c r="C98" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D98" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>207</v>
       </c>
@@ -3137,8 +3485,11 @@
       <c r="C99" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D99" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>209</v>
       </c>
@@ -3148,8 +3499,11 @@
       <c r="C100" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D100" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>211</v>
       </c>
@@ -3159,8 +3513,11 @@
       <c r="C101" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D101" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>213</v>
       </c>
@@ -3170,8 +3527,11 @@
       <c r="C102" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D102" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>215</v>
       </c>
@@ -3181,8 +3541,11 @@
       <c r="C103" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D103" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>217</v>
       </c>
@@ -3192,8 +3555,11 @@
       <c r="C104" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D104" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>219</v>
       </c>
@@ -3203,8 +3569,11 @@
       <c r="C105" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D105" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>221</v>
       </c>
@@ -3214,8 +3583,11 @@
       <c r="C106" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D106" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>223</v>
       </c>
@@ -3225,8 +3597,11 @@
       <c r="C107" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D107" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>225</v>
       </c>
@@ -3236,8 +3611,11 @@
       <c r="C108" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D108" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>227</v>
       </c>
@@ -3247,8 +3625,11 @@
       <c r="C109" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D109" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -3258,8 +3639,11 @@
       <c r="C110" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D110" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>230</v>
       </c>
@@ -3269,8 +3653,11 @@
       <c r="C111" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D111" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>232</v>
       </c>
@@ -3280,8 +3667,11 @@
       <c r="C112" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D112" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>234</v>
       </c>
@@ -3291,8 +3681,11 @@
       <c r="C113" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D113" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>236</v>
       </c>
@@ -3302,8 +3695,11 @@
       <c r="C114" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D114" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>238</v>
       </c>
@@ -3313,8 +3709,11 @@
       <c r="C115" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D115" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>240</v>
       </c>
@@ -3324,8 +3723,11 @@
       <c r="C116" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D116" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>242</v>
       </c>
@@ -3335,8 +3737,11 @@
       <c r="C117" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D117" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>244</v>
       </c>
@@ -3346,8 +3751,11 @@
       <c r="C118" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D118" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>246</v>
       </c>
@@ -3357,8 +3765,11 @@
       <c r="C119" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D119" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>248</v>
       </c>
@@ -3368,8 +3779,11 @@
       <c r="C120" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D120" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>250</v>
       </c>
@@ -3379,8 +3793,11 @@
       <c r="C121" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D121" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>252</v>
       </c>
@@ -3390,8 +3807,11 @@
       <c r="C122" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D122" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>254</v>
       </c>
@@ -3401,8 +3821,11 @@
       <c r="C123" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D123" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>256</v>
       </c>
@@ -3412,8 +3835,11 @@
       <c r="C124" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
+      <c r="D124" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>258</v>
       </c>
@@ -3423,8 +3849,11 @@
       <c r="C125" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D125" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>260</v>
       </c>
@@ -3434,8 +3863,11 @@
       <c r="C126" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
+      <c r="D126" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>262</v>
       </c>
@@ -3445,8 +3877,11 @@
       <c r="C127" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D127" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>264</v>
       </c>
@@ -3456,8 +3891,11 @@
       <c r="C128" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D128" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>266</v>
       </c>
@@ -3467,8 +3905,11 @@
       <c r="C129" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
+      <c r="D129" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>268</v>
       </c>
@@ -3478,8 +3919,11 @@
       <c r="C130" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
+      <c r="D130" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>270</v>
       </c>
@@ -3489,8 +3933,11 @@
       <c r="C131" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D131" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>272</v>
       </c>
@@ -3500,8 +3947,11 @@
       <c r="C132" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="31.2" x14ac:dyDescent="0.2">
+      <c r="D132" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>274</v>
       </c>
@@ -3511,8 +3961,11 @@
       <c r="C133" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D133" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>276</v>
       </c>
@@ -3522,8 +3975,11 @@
       <c r="C134" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>278</v>
       </c>
@@ -3533,8 +3989,11 @@
       <c r="C135" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>280</v>
       </c>
@@ -3544,8 +4003,11 @@
       <c r="C136" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>282</v>
       </c>
@@ -3555,8 +4017,11 @@
       <c r="C137" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>284</v>
       </c>
@@ -3566,8 +4031,11 @@
       <c r="C138" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>286</v>
       </c>
@@ -3577,8 +4045,11 @@
       <c r="C139" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>288</v>
       </c>
@@ -3588,8 +4059,11 @@
       <c r="C140" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>290</v>
       </c>
@@ -3599,8 +4073,11 @@
       <c r="C141" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D141" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>292</v>
       </c>
@@ -3610,8 +4087,11 @@
       <c r="C142" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>294</v>
       </c>
@@ -3621,8 +4101,11 @@
       <c r="C143" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>296</v>
       </c>
@@ -3632,8 +4115,11 @@
       <c r="C144" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>298</v>
       </c>
@@ -3643,8 +4129,11 @@
       <c r="C145" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>300</v>
       </c>
@@ -3654,8 +4143,11 @@
       <c r="C146" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="31.2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>302</v>
       </c>
@@ -3665,8 +4157,11 @@
       <c r="C147" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D147" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>309</v>
       </c>
@@ -3674,9 +4169,11 @@
       <c r="C148" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D148" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>310</v>
       </c>
@@ -3684,8 +4181,11 @@
       <c r="C149" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D149" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>311</v>
       </c>
@@ -3693,8 +4193,11 @@
       <c r="C150" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D150" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>312</v>
       </c>
@@ -3702,8 +4205,11 @@
       <c r="C151" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D151" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>313</v>
       </c>
@@ -3711,8 +4217,11 @@
       <c r="C152" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D152" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>314</v>
       </c>
@@ -3720,8 +4229,11 @@
       <c r="C153" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D153" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>315</v>
       </c>
@@ -3729,8 +4241,11 @@
       <c r="C154" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D154" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>316</v>
       </c>
@@ -3738,8 +4253,11 @@
       <c r="C155" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D155" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>317</v>
       </c>
@@ -3747,8 +4265,11 @@
       <c r="C156" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D156" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>318</v>
       </c>
@@ -3756,8 +4277,11 @@
       <c r="C157" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D157" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>321</v>
       </c>
@@ -3767,8 +4291,11 @@
       <c r="C158" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D158" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>320</v>
       </c>
@@ -3778,8 +4305,11 @@
       <c r="C159" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D159" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>319</v>
       </c>
@@ -3789,8 +4319,11 @@
       <c r="C160" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.2">
+      <c r="D160" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
         <v>322</v>
       </c>
@@ -3800,19 +4333,19 @@
       <c r="C161" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="D161" s="6" t="s">
+        <v>325</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C148 C150:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D148">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
